--- a/target/test-classes/test_data.xlsx
+++ b/target/test-classes/test_data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="103">
   <si>
     <t>case_id(用例id)</t>
   </si>
@@ -365,6 +365,18 @@
   </si>
   <si>
     <t>{"code":401,"name":"TOKEN_FAILED","msg":"token校验不通过"}</t>
+  </si>
+  <si>
+    <t>{"code":200,"success":true}</t>
+  </si>
+  <si>
+    <t>{"code":401,"success":false,"msg":"账号或密码错误"}</t>
+  </si>
+  <si>
+    <t>{"code":100001,"success":false,"msg":"insufficient amount"}</t>
+  </si>
+  <si>
+    <t>{"code":500,"success":false,"msg":"金额错误"}</t>
   </si>
 </sst>
 </file>
@@ -980,7 +992,9 @@
       <c r="D2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F2"/>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row customHeight="1" ht="21" r="3" spans="1:10">
       <c r="A3" s="9">
@@ -995,7 +1009,9 @@
       <c r="D3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F3"/>
+      <c r="F3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row customHeight="1" ht="15" r="4" spans="1:10">
       <c r="A4" s="9">
@@ -1010,7 +1026,9 @@
       <c r="D4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F4"/>
+      <c r="F4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="5" spans="1:10">
       <c r="A5" s="9">
@@ -1025,7 +1043,9 @@
       <c r="D5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F5"/>
+      <c r="F5" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row customHeight="1" ht="19" r="6" spans="1:10">
       <c r="A6" s="9">
@@ -1040,7 +1060,9 @@
       <c r="D6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F6"/>
+      <c r="F6" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="7" spans="1:10">
       <c r="A7" s="9">
@@ -1056,7 +1078,7 @@
         <v>71</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H7" s="12"/>
       <c r="J7" s="11"/>
@@ -1075,7 +1097,7 @@
         <v>72</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row customHeight="1" ht="31" r="9" spans="1:10">
@@ -1092,7 +1114,7 @@
         <v>73</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="53" r="10" spans="1:10">
@@ -1125,12 +1147,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.5" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="21.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="41.1640625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="33.83203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="29.6640625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="20.5" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="41.1640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="33.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
